--- a/app/data/wto_proposal_settings_master_v3.xlsx
+++ b/app/data/wto_proposal_settings_master_v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/Github/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9791AEFC-034F-C54B-92DF-11F50DF5A577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F4C55-A885-7440-A959-5D217839BBD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="473">
   <si>
     <t>proposal</t>
   </si>
@@ -1264,9 +1264,6 @@
     <t>Chair's text - Consolidated text (June 2021) [Full exemption]</t>
   </si>
   <si>
-    <t>Chair's text - Consolidated text (June 2021) [Sustainability scenario]</t>
-  </si>
-  <si>
     <t>TN/RL/W/276/Rev.1 | Full exemption</t>
   </si>
   <si>
@@ -1372,9 +1369,6 @@
     <t>JUNE Chair's text - higher impact version (only manged get sustainabiliyt exemption, but we assume the high seas OFOC prohibition still applies to all)</t>
   </si>
   <si>
-    <t>JUNE Chair's text - sustainability criteria</t>
-  </si>
-  <si>
     <t xml:space="preserve">12/8/21 - Removed mistaken developing exemption for OFOC. 10/22/21 - Updated text. 7/13/21 - Updated text again. 6/8/21 - Updated text. 5/25/21 - NEW. </t>
   </si>
   <si>
@@ -1412,6 +1406,39 @@
   </si>
   <si>
     <t>1/5/22 - S&amp;DT for developing fixed for OFOC (capture production). 12/8/21 - Added.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/21/22 - Added </t>
+  </si>
+  <si>
+    <t>Subsidies granted by LDCs and developing countries shall be allowed. As written, such an exemption might only apply with a transition period, but for the purposes of modeling we assume it to apply indefinitely.</t>
+  </si>
+  <si>
+    <t>Chair's text - Consolidated text [Sustainability scenario]</t>
+  </si>
+  <si>
+    <t>JUNE/NOVEMBMER Chair's text - sustainability criteria</t>
+  </si>
+  <si>
+    <t>TN/RL/W/276/Rev.1 | Full exemption w/S&amp;DT error</t>
+  </si>
+  <si>
+    <t>Chair's text - Consolidated text (June 2021) [Full exemption w/S&amp;DT error]</t>
+  </si>
+  <si>
+    <t>JUNE Chair's text - old low end version (everyone gets sustainability exemption and we assume the high seas OFOC prohibition only applies to developed)</t>
+  </si>
+  <si>
+    <t>JUNE/NOVEMBMER Chair's text - sustainability criteria old version</t>
+  </si>
+  <si>
+    <t>Chair's text - Consolidated text [Sustainability scenario w/S&amp;DT error]</t>
+  </si>
+  <si>
+    <t>TN/RL/W/276/Rev.1 | Sustainability scenario w/S&amp;DT error</t>
+  </si>
+  <si>
+    <t>Subsidies granted by developing and LDC Members shall be allowed. As written, this exemption might only apply with a transition period, but for the purposes of modeling we assume it to apply indefinitely.</t>
   </si>
 </sst>
 </file>
@@ -2381,11 +2408,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CW47"/>
+  <dimension ref="A1:CW49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="BR45" sqref="BR45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2728,7 +2755,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>325</v>
@@ -4178,7 +4205,7 @@
         <v>174</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G20" s="10">
         <v>43803</v>
@@ -4255,7 +4282,7 @@
         <v>174</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G21" s="10">
         <v>43803</v>
@@ -4709,7 +4736,7 @@
         <v>38</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>294</v>
@@ -4733,7 +4760,7 @@
         <v>374</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="S26" s="24" t="s">
         <v>38</v>
@@ -4884,7 +4911,7 @@
         <v>298</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>110</v>
@@ -4926,7 +4953,7 @@
         <v>374</v>
       </c>
       <c r="R27" s="23" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S27" s="23" t="s">
         <v>38</v>
@@ -5017,7 +5044,7 @@
         <v>160</v>
       </c>
       <c r="BS27" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV27" s="9" t="s">
         <v>153</v>
@@ -5117,7 +5144,7 @@
         <v>382</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>196</v>
@@ -5165,7 +5192,7 @@
         <v>239</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>196</v>
@@ -5207,7 +5234,7 @@
         <v>386</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S30" s="23" t="s">
         <v>38</v>
@@ -5291,7 +5318,7 @@
         <v>160</v>
       </c>
       <c r="BS30" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV30" s="9" t="s">
         <v>153</v>
@@ -5311,7 +5338,7 @@
         <v>238</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>196</v>
@@ -5353,7 +5380,7 @@
         <v>386</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S31" s="23" t="s">
         <v>38</v>
@@ -5437,7 +5464,7 @@
         <v>160</v>
       </c>
       <c r="BS31" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV31" s="9" t="s">
         <v>153</v>
@@ -5457,7 +5484,7 @@
         <v>234</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>196</v>
@@ -5499,7 +5526,7 @@
         <v>386</v>
       </c>
       <c r="R32" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S32" s="23" t="s">
         <v>344</v>
@@ -5583,7 +5610,7 @@
         <v>160</v>
       </c>
       <c r="BS32" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV32" s="9" t="s">
         <v>153</v>
@@ -5610,7 +5637,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:101" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:98" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>221</v>
       </c>
@@ -5621,7 +5648,7 @@
         <v>235</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>196</v>
@@ -5663,7 +5690,7 @@
         <v>386</v>
       </c>
       <c r="R33" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S33" s="23" t="s">
         <v>344</v>
@@ -5747,7 +5774,7 @@
         <v>160</v>
       </c>
       <c r="BS33" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV33" s="9" t="s">
         <v>153</v>
@@ -5774,7 +5801,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:101" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:98" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>221</v>
       </c>
@@ -5785,7 +5812,7 @@
         <v>232</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>196</v>
@@ -5827,7 +5854,7 @@
         <v>386</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S34" s="23" t="s">
         <v>345</v>
@@ -5896,7 +5923,7 @@
         <v>160</v>
       </c>
       <c r="BS34" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV34" s="9" t="s">
         <v>153</v>
@@ -5932,7 +5959,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:101" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:98" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>221</v>
       </c>
@@ -5943,7 +5970,7 @@
         <v>233</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>196</v>
@@ -5985,7 +6012,7 @@
         <v>386</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S35" s="23" t="s">
         <v>345</v>
@@ -6054,7 +6081,7 @@
         <v>160</v>
       </c>
       <c r="BS35" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV35" s="9" t="s">
         <v>153</v>
@@ -6090,7 +6117,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:101" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:98" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>221</v>
       </c>
@@ -6101,7 +6128,7 @@
         <v>231</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>196</v>
@@ -6143,7 +6170,7 @@
         <v>386</v>
       </c>
       <c r="R36" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S36" s="23" t="s">
         <v>324</v>
@@ -6212,7 +6239,7 @@
         <v>160</v>
       </c>
       <c r="BS36" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV36" s="9" t="s">
         <v>153</v>
@@ -6249,7 +6276,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:101" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:98" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>221</v>
       </c>
@@ -6260,7 +6287,7 @@
         <v>230</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>196</v>
@@ -6302,7 +6329,7 @@
         <v>386</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S37" s="23" t="s">
         <v>324</v>
@@ -6371,7 +6398,7 @@
         <v>160</v>
       </c>
       <c r="BS37" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV37" s="9" t="s">
         <v>153</v>
@@ -6408,7 +6435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:101" ht="407" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:98" ht="407" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>221</v>
       </c>
@@ -6419,7 +6446,7 @@
         <v>228</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>196</v>
@@ -6461,7 +6488,7 @@
         <v>386</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S38" s="24" t="s">
         <v>371</v>
@@ -6530,7 +6557,7 @@
         <v>160</v>
       </c>
       <c r="BS38" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV38" s="9" t="s">
         <v>153</v>
@@ -6548,7 +6575,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="39" spans="1:101" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>221</v>
       </c>
@@ -6559,7 +6586,7 @@
         <v>229</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>196</v>
@@ -6601,7 +6628,7 @@
         <v>386</v>
       </c>
       <c r="R39" s="23" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S39" s="24" t="s">
         <v>371</v>
@@ -6670,7 +6697,7 @@
         <v>160</v>
       </c>
       <c r="BS39" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV39" s="9" t="s">
         <v>153</v>
@@ -6688,7 +6715,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:101" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
@@ -6697,7 +6724,7 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="8" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>282</v>
@@ -6733,7 +6760,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="41" spans="1:101" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>39</v>
       </c>
@@ -6744,7 +6771,7 @@
         <v>305</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>286</v>
@@ -6762,7 +6789,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>285</v>
@@ -6786,7 +6813,7 @@
         <v>386</v>
       </c>
       <c r="R41" s="23" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S41" s="23" t="s">
         <v>38</v>
@@ -6864,7 +6891,7 @@
         <v>160</v>
       </c>
       <c r="BS41" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV41" s="9" t="s">
         <v>153</v>
@@ -6873,7 +6900,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="42" spans="1:101" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -6881,22 +6908,22 @@
         <v>351</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>452</v>
+        <v>468</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>413</v>
+        <v>467</v>
       </c>
       <c r="G42" s="10">
         <v>44327</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>39</v>
@@ -6914,19 +6941,19 @@
         <v>410</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O42" s="23" t="s">
         <v>411</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q42" s="23" t="s">
         <v>412</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>445</v>
+        <v>463</v>
       </c>
       <c r="S42" s="23" t="s">
         <v>38</v>
@@ -7010,7 +7037,7 @@
         <v>160</v>
       </c>
       <c r="BS42" s="9" t="s">
-        <v>453</v>
+        <v>152</v>
       </c>
       <c r="BV42" s="9" t="s">
         <v>153</v>
@@ -7019,7 +7046,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="43" spans="1:101" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>39</v>
       </c>
@@ -7030,19 +7057,19 @@
         <v>450</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G43" s="10">
         <v>44327</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>321</v>
+        <v>414</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>39</v>
@@ -7051,28 +7078,28 @@
         <v>195</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>416</v>
+        <v>320</v>
       </c>
       <c r="L43" s="9" t="s">
         <v>307</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>250</v>
+        <v>424</v>
       </c>
       <c r="O43" s="23" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>250</v>
+        <v>425</v>
       </c>
       <c r="Q43" s="23" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="R43" s="23" t="s">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="S43" s="23" t="s">
         <v>38</v>
@@ -7081,28 +7108,31 @@
         <v>306</v>
       </c>
       <c r="U43" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="V43" s="9">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="W43" s="9" t="s">
         <v>152</v>
       </c>
       <c r="Z43" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="AB43" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AD43" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="AE43" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AG43" s="9" t="s">
         <v>153</v>
       </c>
       <c r="AJ43" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AK43" s="9" t="s">
         <v>191</v>
@@ -7111,13 +7141,19 @@
         <v>152</v>
       </c>
       <c r="AR43" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AS43" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="AT43" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AW43" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="AX43" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="BA43" s="9" t="s">
         <v>153</v>
@@ -7129,22 +7165,25 @@
         <v>191</v>
       </c>
       <c r="BG43" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI43" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM43" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN43" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO43" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BM43" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN43" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BO43" s="9" t="s">
-        <v>198</v>
-      </c>
       <c r="BR43" s="9" t="s">
         <v>160</v>
       </c>
       <c r="BS43" s="9" t="s">
-        <v>198</v>
+        <v>451</v>
       </c>
       <c r="BV43" s="9" t="s">
         <v>153</v>
@@ -7153,7 +7192,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="44" spans="1:101" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>39</v>
       </c>
@@ -7161,22 +7200,22 @@
         <v>351</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G44" s="10">
         <v>44327</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>39</v>
@@ -7185,7 +7224,7 @@
         <v>195</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>307</v>
@@ -7194,19 +7233,19 @@
         <v>410</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="O44" s="23" t="s">
         <v>411</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q44" s="23" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="R44" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S44" s="23" t="s">
         <v>38</v>
@@ -7272,7 +7311,7 @@
         <v>191</v>
       </c>
       <c r="BG44" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="BI44" s="9">
         <v>5</v>
@@ -7290,7 +7329,7 @@
         <v>160</v>
       </c>
       <c r="BS44" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="BV44" s="9" t="s">
         <v>153</v>
@@ -7299,7 +7338,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:101" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>39</v>
       </c>
@@ -7307,52 +7346,52 @@
         <v>351</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>432</v>
+        <v>196</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>433</v>
+        <v>470</v>
       </c>
       <c r="G45" s="10">
-        <v>44524</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>443</v>
+        <v>44327</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>471</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>39</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>435</v>
+        <v>195</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>436</v>
+        <v>307</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="N45" s="23" t="s">
-        <v>437</v>
+        <v>250</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="P45" s="23" t="s">
-        <v>437</v>
+        <v>250</v>
       </c>
       <c r="Q45" s="23" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="R45" s="23" t="s">
-        <v>444</v>
+        <v>472</v>
       </c>
       <c r="S45" s="23" t="s">
         <v>38</v>
@@ -7361,31 +7400,28 @@
         <v>306</v>
       </c>
       <c r="U45" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="V45" s="9">
+        <v>20</v>
       </c>
       <c r="W45" s="9" t="s">
         <v>152</v>
       </c>
       <c r="Z45" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB45" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AD45" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE45" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AG45" s="9" t="s">
         <v>153</v>
       </c>
       <c r="AJ45" s="9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="AK45" s="9" t="s">
         <v>191</v>
@@ -7394,19 +7430,13 @@
         <v>152</v>
       </c>
       <c r="AR45" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AS45" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT45" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AW45" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AX45" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="BA45" s="9" t="s">
         <v>153</v>
@@ -7418,10 +7448,7 @@
         <v>191</v>
       </c>
       <c r="BG45" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI45" s="9">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="BM45" s="9" t="s">
         <v>160</v>
@@ -7430,14 +7457,14 @@
         <v>160</v>
       </c>
       <c r="BO45" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR45" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS45" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="BR45" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BS45" s="9" t="s">
-        <v>454</v>
-      </c>
       <c r="BV45" s="9" t="s">
         <v>153</v>
       </c>
@@ -7445,7 +7472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:101" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
@@ -7453,52 +7480,52 @@
         <v>351</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>432</v>
+        <v>196</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="G46" s="10">
-        <v>44524</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>442</v>
+        <v>44327</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>39</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>435</v>
+        <v>195</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>436</v>
+        <v>307</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>437</v>
+        <v>250</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>437</v>
+        <v>250</v>
       </c>
       <c r="Q46" s="23" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="R46" s="23" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="S46" s="23" t="s">
         <v>38</v>
@@ -7507,31 +7534,28 @@
         <v>306</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="V46" s="9">
+        <v>20</v>
       </c>
       <c r="W46" s="9" t="s">
         <v>152</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AA46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB46" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AD46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE46" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AG46" s="9" t="s">
         <v>153</v>
       </c>
       <c r="AJ46" s="9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="AK46" s="9" t="s">
         <v>191</v>
@@ -7540,19 +7564,13 @@
         <v>152</v>
       </c>
       <c r="AR46" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AS46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT46" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AW46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AX46" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="BA46" s="9" t="s">
         <v>153</v>
@@ -7564,10 +7582,7 @@
         <v>191</v>
       </c>
       <c r="BG46" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="BI46" s="9">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="BM46" s="9" t="s">
         <v>160</v>
@@ -7576,13 +7591,13 @@
         <v>160</v>
       </c>
       <c r="BO46" s="9" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="BR46" s="9" t="s">
         <v>160</v>
       </c>
       <c r="BS46" s="9" t="s">
-        <v>454</v>
+        <v>198</v>
       </c>
       <c r="BV46" s="9" t="s">
         <v>153</v>
@@ -7591,212 +7606,504 @@
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:101" ht="42" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="20"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="H47" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I47" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="G47" s="10">
+        <v>44524</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="J47" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="K47" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="M47" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="N47" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="O47" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="P47" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q47" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="R47" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="S47" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T47" s="9" t="s">
+        <v>306</v>
+      </c>
       <c r="U47" s="9" t="s">
         <v>153</v>
-      </c>
-      <c r="V47" s="9">
-        <v>20</v>
       </c>
       <c r="W47" s="9" t="s">
         <v>152</v>
       </c>
       <c r="Z47" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AA47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AC47" s="9">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="AB47" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AD47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF47" s="9">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="AE47" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AG47" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AI47" s="9">
-        <v>5</v>
+      <c r="AJ47" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK47" s="9" t="s">
+        <v>191</v>
       </c>
       <c r="AL47" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AN47" s="9">
-        <v>5</v>
-      </c>
-      <c r="AO47" s="9">
-        <v>24</v>
-      </c>
-      <c r="AP47" s="9">
-        <v>100</v>
-      </c>
-      <c r="AQ47" s="9">
-        <v>400</v>
-      </c>
       <c r="AR47" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AS47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU47" s="9">
-        <v>5</v>
-      </c>
-      <c r="AV47" s="9">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="AT47" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AW47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AY47" s="9">
-        <v>5</v>
-      </c>
-      <c r="AZ47" s="9">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="AX47" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="BA47" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="BC47" s="9">
-        <v>5</v>
-      </c>
-      <c r="BD47" s="9">
-        <v>5</v>
+      <c r="BE47" s="9" t="s">
+        <v>200</v>
       </c>
       <c r="BF47" s="9" t="s">
-        <v>152</v>
+        <v>191</v>
+      </c>
+      <c r="BG47" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="BI47" s="9">
         <v>5</v>
       </c>
-      <c r="BJ47" s="9">
+      <c r="BM47" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN47" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR47" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS47" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="BV47" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ47" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:98" ht="297" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="G48" s="10">
+        <v>44524</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="L48" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="M48" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="N48" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="O48" s="23" t="s">
+        <v>437</v>
+      </c>
+      <c r="P48" s="23" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q48" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="R48" s="23" t="s">
+        <v>443</v>
+      </c>
+      <c r="S48" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="T48" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="U48" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="W48" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AA48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB48" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AE48" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG48" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ48" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK48" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL48" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AR48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT48" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX48" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BA48" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BE48" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="BF48" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG48" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="BI48" s="9">
+        <v>5</v>
+      </c>
+      <c r="BM48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BN48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO48" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR48" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="BS48" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="BV48" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BZ48" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:101" ht="42" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="H49" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="U49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="V49" s="9">
+        <v>20</v>
+      </c>
+      <c r="W49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC49" s="9">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF49" s="9">
+        <v>5</v>
+      </c>
+      <c r="AG49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AI49" s="9">
+        <v>5</v>
+      </c>
+      <c r="AL49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN49" s="9">
+        <v>5</v>
+      </c>
+      <c r="AO49" s="9">
         <v>24</v>
       </c>
-      <c r="BK47" s="9">
+      <c r="AP49" s="9">
         <v>100</v>
       </c>
-      <c r="BL47" s="9">
+      <c r="AQ49" s="9">
         <v>400</v>
       </c>
-      <c r="BM47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="BN47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="BP47" s="9">
+      <c r="AR49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU49" s="9">
         <v>5</v>
       </c>
-      <c r="BQ47" s="9">
+      <c r="AV49" s="9">
         <v>5</v>
       </c>
-      <c r="BR47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="BT47" s="9">
+      <c r="AW49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY49" s="9">
         <v>5</v>
       </c>
-      <c r="BU47" s="9">
+      <c r="AZ49" s="9">
         <v>5</v>
       </c>
-      <c r="BV47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="BX47" s="9">
+      <c r="BA49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BC49" s="9">
         <v>5</v>
       </c>
-      <c r="BY47" s="9">
+      <c r="BD49" s="9">
         <v>5</v>
       </c>
-      <c r="BZ47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="CA47" s="9" t="s">
+      <c r="BF49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="BI49" s="9">
+        <v>5</v>
+      </c>
+      <c r="BJ49" s="9">
+        <v>24</v>
+      </c>
+      <c r="BK49" s="9">
+        <v>100</v>
+      </c>
+      <c r="BL49" s="9">
+        <v>400</v>
+      </c>
+      <c r="BM49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BN49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BP49" s="9">
+        <v>5</v>
+      </c>
+      <c r="BQ49" s="9">
+        <v>5</v>
+      </c>
+      <c r="BR49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BT49" s="9">
+        <v>5</v>
+      </c>
+      <c r="BU49" s="9">
+        <v>5</v>
+      </c>
+      <c r="BV49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX49" s="9">
+        <v>5</v>
+      </c>
+      <c r="BY49" s="9">
+        <v>5</v>
+      </c>
+      <c r="BZ49" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="CA49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="CB47" s="9" t="s">
+      <c r="CB49" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="CC47" s="9" t="s">
+      <c r="CC49" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="CD47" s="9">
+      <c r="CD49" s="9">
         <v>0.7</v>
       </c>
-      <c r="CE47" s="9" t="s">
+      <c r="CE49" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="CF47" s="9" t="s">
+      <c r="CF49" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="CG47" s="9">
+      <c r="CG49" s="9">
         <v>50</v>
       </c>
-      <c r="CH47" s="16">
+      <c r="CH49" s="16">
         <v>5</v>
       </c>
-      <c r="CI47" s="16">
+      <c r="CI49" s="16">
         <v>5</v>
       </c>
-      <c r="CJ47" s="16">
+      <c r="CJ49" s="16">
         <v>5</v>
       </c>
-      <c r="CK47" s="16">
+      <c r="CK49" s="16">
         <v>5</v>
       </c>
-      <c r="CL47" s="9" t="s">
+      <c r="CL49" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="CM47" s="9">
+      <c r="CM49" s="9">
         <v>5</v>
       </c>
-      <c r="CN47" s="9">
+      <c r="CN49" s="9">
         <v>5</v>
       </c>
-      <c r="CO47" s="16">
+      <c r="CO49" s="16">
         <v>5</v>
       </c>
-      <c r="CP47" s="16">
+      <c r="CP49" s="16">
         <v>5</v>
       </c>
-      <c r="CQ47" s="16">
+      <c r="CQ49" s="16">
         <v>5</v>
       </c>
-      <c r="CR47" s="9" t="s">
+      <c r="CR49" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="CS47" s="9">
+      <c r="CS49" s="9">
         <v>5</v>
       </c>
-      <c r="CT47" s="9">
+      <c r="CT49" s="9">
         <v>5</v>
       </c>
-      <c r="CU47" s="16">
+      <c r="CU49" s="16">
         <v>5</v>
       </c>
-      <c r="CV47" s="16">
+      <c r="CV49" s="16">
         <v>5</v>
       </c>
-      <c r="CW47" s="16">
+      <c r="CW49" s="16">
         <v>5</v>
       </c>
     </row>

--- a/app/data/wto_proposal_settings_master_v3.xlsx
+++ b/app/data/wto_proposal_settings_master_v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kat/Github/SubsidyExplorer/app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F4C55-A885-7440-A959-5D217839BBD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E7ED8D-23B3-2C44-8F9F-6EF19096F7A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="480">
   <si>
     <t>proposal</t>
   </si>
@@ -1261,9 +1261,6 @@
     <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) unless a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. It is unclear how many Members would be able to satisfy this sustainability criteria, and thus we assume that such an exemption could be acquired by all Members. We note that this is therefore a conservative interpretation of this text.&lt;/li&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Chair's text - Consolidated text (June 2021) [Full exemption]</t>
-  </si>
-  <si>
     <t>TN/RL/W/276/Rev.1 | Full exemption</t>
   </si>
   <si>
@@ -1279,18 +1276,12 @@
     <t>&lt;ol&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited for all fishing (within Members' own EEZs, on the high seas, and in the EEZs of other coastal states). We note that this is an ambitious interpretation of this proposal as no exemption is provided to demonstrate that measures are implemented to maintain stocks at a biologically sustainable level.&lt;/li&gt;&lt;li&gt;The specific provisions related to high seas fishing and/or fishing in the EEZs of other coastal states are covered in the first assumption.&lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
-    <t>Chair's text - Consolidated text (June 2021) [Managed exemption]</t>
-  </si>
-  <si>
     <t>TN/RL/W/276/Rev.1 | Managed exemption</t>
   </si>
   <si>
     <t xml:space="preserve">Draft consolidated text (June 2021) </t>
   </si>
   <si>
-    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) unless a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. It is unclear how many Members would be able to satisfy this sustainability criteria, and thus we assume that such an exemption could only be acquired by vessels fulfilling our management criteria. We note that this may still be a conservative interpretation of this text because our management criteria are determined based on the location in which the fishing takes place, as opposed to by the flag- or subsidizing Member state.&lt;/li&gt;&lt;li&gt;We assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited.&lt;/li&gt;&lt;/ol&gt;</t>
-  </si>
-  <si>
     <t>NOTE: No guidance is provided as to potential values for X%, Y%, and Z%. 10%, 20% and 30% were chosen. The exemption for developing countries for fishing within their territorial waters is not modeled here.</t>
   </si>
   <si>
@@ -1318,9 +1309,6 @@
     <t>Chair's text (Nov) - Consolidated text</t>
   </si>
   <si>
-    <t>Chair's text - Draft agreement (Nov 2021) [Full exemption]</t>
-  </si>
-  <si>
     <t>Draft Agreement - MC12</t>
   </si>
   <si>
@@ -1336,27 +1324,12 @@
     <t>&lt;ol&gt;&lt;li&gt;There is uncertainty regarding the status of many fish stocks.&lt;/li&gt;&lt;li&gt;For the purposes of modeling this proposal, we assume that subsidies to fishing on stocks identified as overfished (B/Bmsy &lt; 0.8) in the RAM Legacy Stock Assessment Database are prohibited.&lt;/li&gt;&lt;li&gt;The proportion of stocks identified as overfished in the RAM Legacy Stock Assessment Database likely underestimates the actual proportion of stocks that are overfished globally, but it is unclear whether enough evidence would exist to trigger this prohibition for stocks not included in this database.&lt;/li&gt;&lt;li&gt;The proposal is ambiguous about which reference point might be used to make an overfished determination, and we therefore note that this is only one possible interpretation of this text.&lt;/li&gt;&lt;li&gt;The definition for an overfished stock subsidy prohibition considered here is the less ambitious interpretation considered in the previous version of the Chair’s text &lt;/li&gt;&lt;/ol&gt;</t>
   </si>
   <si>
-    <t>NOVEMBER Chair's text - low end version (everyone gets sustainability exemption, but we assume the high seas OFOC prohibition still applies)</t>
-  </si>
-  <si>
-    <t>NOVEMBER Chair's text - higher impact version (only managed get sustainability exemption, but we assume the high seas OFOC prohibition still applies)</t>
-  </si>
-  <si>
-    <t>Chair's text - Draft agreement (Nov 2021) [Managed exemption]</t>
-  </si>
-  <si>
     <t>WT/MIN(21)/W/5 | Managed exemption</t>
   </si>
   <si>
     <t>WT/MIN(21)/W/5 | Full exemption</t>
   </si>
   <si>
-    <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for low income, resource-poor, or livelihood fishing in their territorial seas. Developing Members responsible for less than 0.7% of global marine capture production will also be allowed to continue providing subsidies for fishing in their EEZs and in the areas of competence of RFMO/As until they go above that threshold for 3 consecutive years. As written, developing Members may also be allowed to provide subsidies for fishing in their EEZs and in the areas of competence of RFMO/As for a transition period, but this is not modeled.</t>
-  </si>
-  <si>
-    <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2015 US$, World Bank), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%. As written, this exemption might only apply with a transition period, but for the purposes of modeling we assume it to apply indefinitely.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subsidies granted by LDCs shall be allowed, and subsidies granted by all other Members shall be allowed for fishing in their territorial seas. Subsidies granted by developing country Members for fishing in their EEZs and high seas will be allowed unless any of the following conditions are met for three consecutive years (2016-2018): a) GNI per capita is greater than US $5000 (constant 2015 US$, World Bank), b) they engage in distant water fishing, or c) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10%. A transition period is also considered as an alternative but is not modeled here. If a transition period was employed, we assume that LDCs would enjoy a transition period specifically for them. </t>
   </si>
   <si>
@@ -1369,9 +1342,6 @@
     <t>JUNE Chair's text - higher impact version (only manged get sustainabiliyt exemption, but we assume the high seas OFOC prohibition still applies to all)</t>
   </si>
   <si>
-    <t xml:space="preserve">12/8/21 - Removed mistaken developing exemption for OFOC. 10/22/21 - Updated text. 7/13/21 - Updated text again. 6/8/21 - Updated text. 5/25/21 - NEW. </t>
-  </si>
-  <si>
     <t>JUNE Chair's text - low end version (everyone gets sustainability exemption, but we assume the high seas OFOC prohibition still applies)</t>
   </si>
   <si>
@@ -1399,46 +1369,97 @@
     <t xml:space="preserve">1/5/22 - S&amp;DT for developing fixed for OFOC (three criteria). 10/22/21 - Text updated. 5/25/21 - Updates. As compared to the old Chair's text, this does do something different for Overfished, but not for OFOC. 5/13/21 - NEW. Need guidance on which Chair's text to apply it to. </t>
   </si>
   <si>
-    <t xml:space="preserve">1/5/22 - S&amp;DT for developing fixed for OFOC (three criteria). 10/22/21 - Updated text. 7/13/21 - Updated text again. 6/8/21 - Updated text. 5/25/21 - NEW. </t>
-  </si>
-  <si>
-    <t>1/5/22 - S&amp;DT for developing fixed for OFOC (three criteria). 10/22/21 - Updated text. 10/19/21 - Added for Pew's reference.</t>
-  </si>
-  <si>
-    <t>1/5/22 - S&amp;DT for developing fixed for OFOC (capture production). 12/8/21 - Added.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1/21/22 - Added </t>
-  </si>
-  <si>
-    <t>Subsidies granted by LDCs and developing countries shall be allowed. As written, such an exemption might only apply with a transition period, but for the purposes of modeling we assume it to apply indefinitely.</t>
-  </si>
-  <si>
-    <t>Chair's text - Consolidated text [Sustainability scenario]</t>
-  </si>
-  <si>
-    <t>JUNE/NOVEMBMER Chair's text - sustainability criteria</t>
-  </si>
-  <si>
-    <t>TN/RL/W/276/Rev.1 | Full exemption w/S&amp;DT error</t>
-  </si>
-  <si>
-    <t>Chair's text - Consolidated text (June 2021) [Full exemption w/S&amp;DT error]</t>
-  </si>
-  <si>
     <t>JUNE Chair's text - old low end version (everyone gets sustainability exemption and we assume the high seas OFOC prohibition only applies to developed)</t>
   </si>
   <si>
-    <t>JUNE/NOVEMBMER Chair's text - sustainability criteria old version</t>
-  </si>
-  <si>
-    <t>Chair's text - Consolidated text [Sustainability scenario w/S&amp;DT error]</t>
-  </si>
-  <si>
-    <t>TN/RL/W/276/Rev.1 | Sustainability scenario w/S&amp;DT error</t>
-  </si>
-  <si>
-    <t>Subsidies granted by developing and LDC Members shall be allowed. As written, this exemption might only apply with a transition period, but for the purposes of modeling we assume it to apply indefinitely.</t>
+    <t>2/2/22 - sustainability test now applies to the high seas OFOC prohibition. 1/5/22 - S&amp;DT for developing fixed for OFOC (capture production). 12/8/21 - Added.</t>
+  </si>
+  <si>
+    <t>NOVEMBER Chair's text - higher impact version (only managed get sustainability exemption for domestic and high seas fishing)</t>
+  </si>
+  <si>
+    <t>NOVEMBER Chair's text - low end version (everyone gets sustainability exemption for doemestic and high seas fishing)</t>
+  </si>
+  <si>
+    <t>Chair's text - Nov 2021 [Managed exemption]</t>
+  </si>
+  <si>
+    <t>Chair's text - June 2021 [Full exemption w/S&amp;DT for all developing countries]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/2/22 - Updated name. 1/21/22 - Added </t>
+  </si>
+  <si>
+    <t>TN/RL/W/276/Rev.1 | Full exemption w/S&amp;DT for all developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This communication aims to represent the progress made since the last consolidated text was released, and to provide some suggested compromises on remaining outstanding issues. As written, it still provides two possible options for S&amp;DT for Article 5 prohibitions. For the purposes of modeling here, we explore the potential outcome if no developing countries recieved S&amp;DT based on the conditions in ALT 1.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subsidies granted by LDCs and developing countries shall be allowed. As written, such an exemption might only apply with a transition period, but for the purposes of modeling we assume it to apply indefinitely. We note that this is different from the S&amp;DT called for in the text and is included to illustrate the potential effects of S&amp;DT for all developing countries. </t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) unless a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. It is unclear how many Members would be able to satisfy this sustainability criteria, and thus we assume that such an exemption could be acquired by all Members. We note that this is therefore a conservative interpretation of this text.&lt;/li&gt;&lt;li&gt;This text would also prohibit subsidies to fishing in areas beyond the subsidizing Member's national jurisdiction. We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) unless a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. It is unclear how many Members would be able to satisfy this sustainability criteria, and thus we assume that such an exemption could only be acquired by vessels fulfilling our management criteria. We note that this may still be a conservative interpretation of this text because our management criteria are determined based on the location in which the fishing takes place, as opposed to by the flag- or subsidizing Member state.&lt;/li&gt;&lt;li&gt;This text would also prohibit subsidies to fishing in areas beyond the subsidizing Member's national jurisdiction. We therefore assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>Chair's text - June 2021 [Full exemption]</t>
+  </si>
+  <si>
+    <t>Chair's text - June 2021 [Managed exemption]</t>
+  </si>
+  <si>
+    <t>2/2/22 - Added fourth S&amp;DT condition, fixed distant water condition, changed name, and updated assumptions text. 1/5/22 - S&amp;DT for developing fixed for OFOC (three criteria). 10/22/21 - Updated text. 10/19/21 - Added for Pew's reference.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/2/22 - Added fourth S&amp;DT condition, fixed distant water condition, changed name, and updated assumptions text. 1/5/22 - S&amp;DT for developing fixed for OFOC (three criteria). 10/22/21 - Updated text. 7/13/21 - Updated text again. 6/8/21 - Updated text. 5/25/21 - NEW. </t>
+  </si>
+  <si>
+    <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for fishing in their territorial seas, or for fishing in their EEZs and high seas unless any of the following conditions are met: a) GNI per capita is greater than US $5000 (constant 2015 US$, World Bank) for three consecutive years (2016-2018), b) their share of annual global marine capture exceeds 2% based on published FAO data (2018), c) they engage in distant water fishing, or d) the contribution from Agriculture, Forestry and Fishing to their national GDP (World Bank) is greater than 10% for three consecutive years (2016-2018). For the purposes of identifying Members engaging in distant water fishing here, we only include Members whose vessels fish in FAO Major Fishing Area(s) that are not directly adjacent to that Member's coastline. As written, this exemption might only apply with a transition period, but for the purposes of modeling we assume it to apply indefinitely.</t>
+  </si>
+  <si>
+    <t>Chair's text - June 2021 [Sustainability scenario]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/2/22 - Updated name and assumptions text. 12/8/21 - Removed mistaken developing exemption for OFOC. 10/22/21 - Updated text. 7/13/21 - Updated text again. 6/8/21 - Updated text. 5/25/21 - NEW. </t>
+  </si>
+  <si>
+    <t>JUNE Chair's text - sustainability criteria</t>
+  </si>
+  <si>
+    <t>2/2/22 - Updated name and assumptions text, made it such that high seas prohibition also follows same logic as sustainability test. 1/5/22 - S&amp;DT for developing fixed for OFOC (capture production). 12/8/21 - Added.</t>
+  </si>
+  <si>
+    <t>Chair's text - Nov 2021 [Full exemption]</t>
+  </si>
+  <si>
+    <t>Subsidies granted by LDCs shall be allowed, and subsidies granted by developing countries shall be allowed for low income, resource-poor, or livelihood fishing in their territorial seas unless they are responsible for more than 10% of annual global marine capture production. Developing Members responsible for less than 0.7% of global marine capture production will also be allowed to continue providing subsidies for fishing in their EEZs and in the areas of competence of RFMO/As until they go above that threshold for 3 consecutive years. As written, developing Members not meeting this criteria may also be allowed to provide subsidies for fishing in their EEZs and in the areas of competence of RFMO/As for a transition period, but this is not modeled.</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) unless a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. It is unclear how many Members would be able to satisfy this sustainability criteria, and thus we assume that such an exemption could be acquired by all Members. We note that this is therefore a conservative interpretation of this text.&lt;/li&gt;&lt;li&gt;This text would also prohibit subsidies to fishing in areas beyond the subsidizing Member's national jurisdiction, but this prohibition would also be contingent on whether a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. We apply the same assumption regarding the ability of all Members to acquire this exemption as it relates to subsidies for fishing in areas beyond the Member's national jurisdiction.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;As written, this text would prohibit all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) unless a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. It is unclear how many Members would be able to satisfy this sustainability criteria, and thus we assume that such an exemption could only be acquired by vessels fulfilling our management criteria. We note that this may still be a conservative interpretation of this text because our management criteria are determined based on the location in which the fishing takes place, as opposed to by the flag- or subsidizing Member state.&lt;/li&gt;&lt;li&gt;This text would also prohibit subsidies to fishing in areas beyond the subsidizing Member's national jurisdiction, but this prohibition would also be contingent on whether a Member can demonstrate that measures are implemented to maintain stocks at a biologically sustainable level. We apply the same assumption regarding the ability of all Members to acquire this exemption as it relates to subsidies for fishing in areas beyond the Member's national jurisdiction. For vessels not fulfilling our management criteria, we assume that all capacity-enhancing and ambiguous subsidies as defined by Sumaila et al. (2019) are prohibited to vessels fishing in areas beyond that Member's national jurisdiction. By default, we consider all capacity-enhancing subsidies provided to vessels spending at least 5% of their total annual effort fishing on the high seas and/or in the EEZs of another coastal state to be prohibited.&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
+    <t>NOVEMBER Chair's text - sustainability criteria</t>
+  </si>
+  <si>
+    <t>2/2/22 - ADDED (duplicate of June entry)</t>
+  </si>
+  <si>
+    <t>Chair's text - Nov 2021 [Sustainability scenario]</t>
+  </si>
+  <si>
+    <t>WT/MIN(21)/W/5 | Sustainability scenario</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>TER/CRI4</t>
   </si>
 </sst>
 </file>
@@ -2410,9 +2431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CW49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BR45" sqref="BR45"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BQ44" sqref="BQ44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2755,7 +2776,7 @@
         <v>62</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>325</v>
@@ -4205,7 +4226,7 @@
         <v>174</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G20" s="10">
         <v>43803</v>
@@ -4282,7 +4303,7 @@
         <v>174</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G21" s="10">
         <v>43803</v>
@@ -4736,7 +4757,7 @@
         <v>38</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>294</v>
@@ -4760,7 +4781,7 @@
         <v>374</v>
       </c>
       <c r="R26" s="24" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="S26" s="24" t="s">
         <v>38</v>
@@ -4911,7 +4932,7 @@
         <v>298</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>110</v>
@@ -4953,7 +4974,7 @@
         <v>374</v>
       </c>
       <c r="R27" s="23" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="S27" s="23" t="s">
         <v>38</v>
@@ -5044,7 +5065,7 @@
         <v>160</v>
       </c>
       <c r="BS27" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV27" s="9" t="s">
         <v>153</v>
@@ -5144,7 +5165,7 @@
         <v>382</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>196</v>
@@ -5192,7 +5213,7 @@
         <v>239</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>196</v>
@@ -5234,7 +5255,7 @@
         <v>386</v>
       </c>
       <c r="R30" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S30" s="23" t="s">
         <v>38</v>
@@ -5318,7 +5339,7 @@
         <v>160</v>
       </c>
       <c r="BS30" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV30" s="9" t="s">
         <v>153</v>
@@ -5338,7 +5359,7 @@
         <v>238</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>196</v>
@@ -5380,7 +5401,7 @@
         <v>386</v>
       </c>
       <c r="R31" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S31" s="23" t="s">
         <v>38</v>
@@ -5464,7 +5485,7 @@
         <v>160</v>
       </c>
       <c r="BS31" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV31" s="9" t="s">
         <v>153</v>
@@ -5484,7 +5505,7 @@
         <v>234</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>196</v>
@@ -5526,7 +5547,7 @@
         <v>386</v>
       </c>
       <c r="R32" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S32" s="23" t="s">
         <v>344</v>
@@ -5610,7 +5631,7 @@
         <v>160</v>
       </c>
       <c r="BS32" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV32" s="9" t="s">
         <v>153</v>
@@ -5648,7 +5669,7 @@
         <v>235</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>196</v>
@@ -5690,7 +5711,7 @@
         <v>386</v>
       </c>
       <c r="R33" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S33" s="23" t="s">
         <v>344</v>
@@ -5774,7 +5795,7 @@
         <v>160</v>
       </c>
       <c r="BS33" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV33" s="9" t="s">
         <v>153</v>
@@ -5812,7 +5833,7 @@
         <v>232</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>196</v>
@@ -5854,7 +5875,7 @@
         <v>386</v>
       </c>
       <c r="R34" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S34" s="23" t="s">
         <v>345</v>
@@ -5923,7 +5944,7 @@
         <v>160</v>
       </c>
       <c r="BS34" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV34" s="9" t="s">
         <v>153</v>
@@ -5970,7 +5991,7 @@
         <v>233</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>196</v>
@@ -6012,7 +6033,7 @@
         <v>386</v>
       </c>
       <c r="R35" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S35" s="23" t="s">
         <v>345</v>
@@ -6081,7 +6102,7 @@
         <v>160</v>
       </c>
       <c r="BS35" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV35" s="9" t="s">
         <v>153</v>
@@ -6128,7 +6149,7 @@
         <v>231</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>196</v>
@@ -6170,7 +6191,7 @@
         <v>386</v>
       </c>
       <c r="R36" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S36" s="23" t="s">
         <v>324</v>
@@ -6239,7 +6260,7 @@
         <v>160</v>
       </c>
       <c r="BS36" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV36" s="9" t="s">
         <v>153</v>
@@ -6287,7 +6308,7 @@
         <v>230</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>196</v>
@@ -6329,7 +6350,7 @@
         <v>386</v>
       </c>
       <c r="R37" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S37" s="23" t="s">
         <v>324</v>
@@ -6398,7 +6419,7 @@
         <v>160</v>
       </c>
       <c r="BS37" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV37" s="9" t="s">
         <v>153</v>
@@ -6446,7 +6467,7 @@
         <v>228</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>196</v>
@@ -6488,7 +6509,7 @@
         <v>386</v>
       </c>
       <c r="R38" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S38" s="24" t="s">
         <v>371</v>
@@ -6557,7 +6578,7 @@
         <v>160</v>
       </c>
       <c r="BS38" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV38" s="9" t="s">
         <v>153</v>
@@ -6586,7 +6607,7 @@
         <v>229</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>196</v>
@@ -6628,7 +6649,7 @@
         <v>386</v>
       </c>
       <c r="R39" s="23" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="S39" s="24" t="s">
         <v>371</v>
@@ -6697,7 +6718,7 @@
         <v>160</v>
       </c>
       <c r="BS39" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV39" s="9" t="s">
         <v>153</v>
@@ -6724,7 +6745,7 @@
       </c>
       <c r="C40" s="20"/>
       <c r="D40" s="8" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>282</v>
@@ -6771,7 +6792,7 @@
         <v>305</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>286</v>
@@ -6789,7 +6810,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>285</v>
@@ -6813,7 +6834,7 @@
         <v>386</v>
       </c>
       <c r="R41" s="23" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="S41" s="23" t="s">
         <v>38</v>
@@ -6891,7 +6912,7 @@
         <v>160</v>
       </c>
       <c r="BS41" s="9" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="BV41" s="9" t="s">
         <v>153</v>
@@ -6908,22 +6929,22 @@
         <v>351</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="G42" s="10">
         <v>44327</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="I42" s="8" t="s">
         <v>39</v>
@@ -6935,25 +6956,25 @@
         <v>320</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>307</v>
+        <v>457</v>
       </c>
       <c r="M42" s="23" t="s">
         <v>410</v>
       </c>
       <c r="N42" s="23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O42" s="23" t="s">
         <v>411</v>
       </c>
       <c r="P42" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q42" s="23" t="s">
         <v>412</v>
       </c>
       <c r="R42" s="23" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="S42" s="23" t="s">
         <v>38</v>
@@ -7054,22 +7075,22 @@
         <v>351</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>413</v>
+        <v>461</v>
       </c>
       <c r="G43" s="10">
         <v>44327</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>39</v>
@@ -7087,19 +7108,19 @@
         <v>410</v>
       </c>
       <c r="N43" s="23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O43" s="23" t="s">
         <v>411</v>
       </c>
       <c r="P43" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q43" s="23" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="R43" s="23" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="S43" s="23" t="s">
         <v>38</v>
@@ -7183,7 +7204,7 @@
         <v>160</v>
       </c>
       <c r="BS43" s="9" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="BV43" s="9" t="s">
         <v>153</v>
@@ -7200,22 +7221,22 @@
         <v>351</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="G44" s="10">
         <v>44327</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="I44" s="8" t="s">
         <v>39</v>
@@ -7224,7 +7245,7 @@
         <v>195</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L44" s="9" t="s">
         <v>307</v>
@@ -7233,19 +7254,19 @@
         <v>410</v>
       </c>
       <c r="N44" s="23" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O44" s="23" t="s">
         <v>411</v>
       </c>
       <c r="P44" s="23" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q44" s="23" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="R44" s="23" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="S44" s="23" t="s">
         <v>38</v>
@@ -7311,7 +7332,7 @@
         <v>191</v>
       </c>
       <c r="BG44" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="BI44" s="9">
         <v>5</v>
@@ -7329,7 +7350,7 @@
         <v>160</v>
       </c>
       <c r="BS44" s="9" t="s">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="BV44" s="9" t="s">
         <v>153</v>
@@ -7346,22 +7367,22 @@
         <v>351</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>196</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G45" s="10">
         <v>44327</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>471</v>
+        <v>321</v>
       </c>
       <c r="I45" s="8" t="s">
         <v>39</v>
@@ -7370,28 +7391,28 @@
         <v>195</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L45" s="9" t="s">
         <v>307</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N45" s="23" t="s">
         <v>250</v>
       </c>
       <c r="O45" s="23" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P45" s="23" t="s">
         <v>250</v>
       </c>
       <c r="Q45" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="R45" s="23" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
       <c r="S45" s="23" t="s">
         <v>38</v>
@@ -7463,7 +7484,7 @@
         <v>160</v>
       </c>
       <c r="BS45" s="9" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="BV45" s="9" t="s">
         <v>153</v>
@@ -7480,52 +7501,52 @@
         <v>351</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>196</v>
+        <v>428</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G46" s="10">
-        <v>44327</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>321</v>
+        <v>44524</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>435</v>
       </c>
       <c r="I46" s="8" t="s">
         <v>39</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>195</v>
+        <v>430</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>307</v>
+        <v>431</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N46" s="23" t="s">
-        <v>250</v>
+        <v>432</v>
       </c>
       <c r="O46" s="23" t="s">
-        <v>417</v>
+        <v>433</v>
       </c>
       <c r="P46" s="23" t="s">
-        <v>250</v>
+        <v>432</v>
       </c>
       <c r="Q46" s="23" t="s">
-        <v>418</v>
+        <v>472</v>
       </c>
       <c r="R46" s="23" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="S46" s="23" t="s">
         <v>38</v>
@@ -7534,28 +7555,31 @@
         <v>306</v>
       </c>
       <c r="U46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="V46" s="9">
-        <v>20</v>
+        <v>153</v>
       </c>
       <c r="W46" s="9" t="s">
         <v>152</v>
       </c>
       <c r="Z46" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AA46" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="AB46" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AD46" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="AE46" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AG46" s="9" t="s">
         <v>153</v>
       </c>
       <c r="AJ46" s="9" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="AK46" s="9" t="s">
         <v>191</v>
@@ -7564,42 +7588,24 @@
         <v>152</v>
       </c>
       <c r="AR46" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="AS46" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="AT46" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="AW46" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="AX46" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="BA46" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="BE46" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="BF46" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="BG46" s="9" t="s">
-        <v>152</v>
-      </c>
       <c r="BM46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BN46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BO46" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BR46" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="BS46" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="BV46" s="9" t="s">
         <v>153</v>
       </c>
       <c r="BZ46" s="9" t="s">
@@ -7614,52 +7620,52 @@
         <v>351</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="G47" s="10">
         <v>44524</v>
       </c>
       <c r="H47" s="8" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>39</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K47" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M47" s="23" t="s">
         <v>410</v>
       </c>
       <c r="N47" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="O47" s="23" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="P47" s="23" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q47" s="23" t="s">
-        <v>412</v>
+        <v>473</v>
       </c>
       <c r="R47" s="23" t="s">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="S47" s="23" t="s">
         <v>38</v>
@@ -7725,10 +7731,7 @@
         <v>191</v>
       </c>
       <c r="BG47" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI47" s="9">
-        <v>5</v>
+        <v>478</v>
       </c>
       <c r="BM47" s="9" t="s">
         <v>160</v>
@@ -7743,7 +7746,7 @@
         <v>160</v>
       </c>
       <c r="BS47" s="9" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="BV47" s="9" t="s">
         <v>153</v>
@@ -7760,52 +7763,52 @@
         <v>351</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>439</v>
+        <v>474</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>431</v>
+        <v>196</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="G48" s="10">
         <v>44524</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>441</v>
+      <c r="H48" s="4" t="s">
+        <v>477</v>
       </c>
       <c r="I48" s="8" t="s">
         <v>39</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="N48" s="23" t="s">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="O48" s="23" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="P48" s="23" t="s">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="Q48" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="R48" s="23" t="s">
         <v>422</v>
-      </c>
-      <c r="R48" s="23" t="s">
-        <v>443</v>
       </c>
       <c r="S48" s="23" t="s">
         <v>38</v>
@@ -7814,31 +7817,28 @@
         <v>306</v>
       </c>
       <c r="U48" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
+      </c>
+      <c r="V48" s="9">
+        <v>20</v>
       </c>
       <c r="W48" s="9" t="s">
         <v>152</v>
       </c>
       <c r="Z48" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AA48" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AB48" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AD48" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AE48" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AG48" s="9" t="s">
         <v>153</v>
       </c>
       <c r="AJ48" s="9" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="AK48" s="9" t="s">
         <v>191</v>
@@ -7847,19 +7847,13 @@
         <v>152</v>
       </c>
       <c r="AR48" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="AS48" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT48" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="AW48" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AX48" s="9" t="s">
-        <v>198</v>
+        <v>153</v>
       </c>
       <c r="BA48" s="9" t="s">
         <v>153</v>
@@ -7871,10 +7865,7 @@
         <v>191</v>
       </c>
       <c r="BG48" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="BI48" s="9">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="BM48" s="9" t="s">
         <v>160</v>
@@ -7883,13 +7874,13 @@
         <v>160</v>
       </c>
       <c r="BO48" s="9" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="BR48" s="9" t="s">
         <v>160</v>
       </c>
       <c r="BS48" s="9" t="s">
-        <v>452</v>
+        <v>198</v>
       </c>
       <c r="BV48" s="9" t="s">
         <v>153</v>
